--- a/data/raw/thirdpostbatch3.xlsx
+++ b/data/raw/thirdpostbatch3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="542">
   <si>
     <t>postCategory</t>
   </si>
@@ -314,7 +314,7 @@
     <t>3108913083</t>
   </si>
   <si>
-    <t>BEST SPA MASSAGE - UNDER NEW MANAGEMENT!     &lt;b&gt;PRIVATE ROOMS&lt;/b&gt;    NECK, SHOULDER, &amp; BACK PAIN.  MUSCLE TENSION  STRESS  SCIATIC PAIN  SWEDISH, HOT OIL, ACUPRESSURE, FOOT REFLEXOLOGY     &lt;b&gt;EARLY BIRD SPECIAL !!!!&lt;/b&gt;    9:00 AM TO 1:00 PM 10$ OFF OR FREE TABLE SHOWER WITH 1 HOUR MASSAGE    CALL: 310.891.3083  OPEN 8AM-9PM  1812 Pacific Coast Hwy., Lomita CA 90717     &lt;a href="http://www.bestspa1812.com" target="_blank"&gt;www.bestspa1812.com&lt;/a&gt;    Serving Torrance, Lomita, Harbor City, Redondo Beach, Hermosa Beach, Palos Verdes, Gardena, Carson, Hawthorne, San Pedro, Long Beach</t>
+    <t>BEST SPA MASSAGE - UNDER NEW MANAGEMENT!      PRIVATE ROOMS     NECK, SHOULDER, &amp; BACK PAIN.  MUSCLE TENSION  STRESS  SCIATIC PAIN  SWEDISH, HOT OIL, ACUPRESSURE, FOOT REFLEXOLOGY      EARLY BIRD SPECIAL !!!!     9:00 AM TO 1:00 PM 10$ OFF OR FREE TABLE SHOWER WITH 1 HOUR MASSAGE    CALL: 310.891.3083  OPEN 8AM-9PM  1812 Pacific Coast Hwy., Lomita CA 90717     &lt;a href="http://www.bestspa1812.com" target="_blank"&gt;www.bestspa1812.com&lt;/a&gt;    Serving Torrance, Lomita, Harbor City, Redondo Beach, Hermosa Beach, Palos Verdes, Gardena, Carson, Hawthorne, San Pedro, Long Beach</t>
   </si>
   <si>
     <t>OPEN 💋💋👙🍒NOW💋💋COME and meet us!! Relax and unwind💄 FuLL BODYRUBS - 23</t>
@@ -407,12 +407,15 @@
     <t>Inglewood / Hawthorne, Los Angeles</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;b&gt;💖💖Welcome To Acupuncture 🎀👠Amazing Fully Body Massage With Young Girl. 👭 They know what is your want. 👭👭several pretty young girls to choose from. 💞 They Will Good Take Care Of You ! 🎀💖Relax and enjoy a therapeutic massage. NO CALL.Walk-ins welcome. 13849 Hawthorne Blvd Hawthorne, 90250&lt;/b&gt;&lt;/b&gt; </t>
+    <t xml:space="preserve">   💖💖Welcome To Acupuncture 🎀👠Amazing Fully Body Massage With Young Girl. 👭 They know what is your want. 👭👭several pretty young girls to choose from. 💞 They Will Good Take Care Of You ! 🎀💖Relax and enjoy a therapeutic massage. NO CALL.Walk-ins welcome. 13849 Hawthorne Blvd Hawthorne, 90250   </t>
   </si>
   <si>
     <t>Asian✨▃▃▃▃▐▐🌺🌺▐▐ ▃▃▃✨Asian 3Girls✨ ▃▃▃▐▐🌺🌺▐▐ ▃▃▃▃✨ NOT RUSH ✨▃▃▃▐▐🌺🌺▐▐▐▐🌺🌺▐▐ ▃▃ -</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>144156717</t>
   </si>
   <si>
@@ -425,7 +428,7 @@
     <t>Time to relax in my love-nest with soft music, candlelight, and US! You will definitely leave feeling completely drained and refreshed. I want this to be a special experience we will remember and repeat.  Sensual, nude, B2B!!! Donation is  $200 hr :-)  xoxo  Sheryl  818-287-6687</t>
   </si>
   <si>
-    <t>1121</t>
+    <t>1251</t>
   </si>
   <si>
     <t>REAL PHOTOS! Milf and Cookies!!! Hot, Sexy, and Ready!!! Sheryl!! Best rubdown in SFV!!! $200hr</t>
@@ -551,7 +554,7 @@
     <t>3104460765 0525251 1184387788 9501785</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;table align="middle" border="0" cellspacing="2" width="100%25"&gt; &lt;tr&gt; &lt;td align="center"&gt; &lt;div style="background-color:pink"&gt; &lt;img border="0" src="http://text.glitter-graphics.net/tpurp/v.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/p.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/e.gif"/&gt; &lt;font color="Green" size="6"&gt;★★★ &lt;b&gt; Best Massage In Town&lt;/b&gt; ★★★&lt;/font&gt; &lt;font color="blue" size="5"&gt;&lt;i&gt;♣ Shiatsu ♣ Swedish ♣ Deep Tissue ♣ Light Touch ♣ 4 hands ♣&lt;/i&gt;&lt;/font&gt;&lt;i&gt; &lt;font color="green" size="5"&gt;✦ Experience the Remarkable Soothing Treatment ☆ Magic Hands ✦&lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;b&gt;☎ CALL NOW: 310-446-0765 &lt;/b&gt;&lt;/font&gt; &lt;font color="green" size="4"&gt;10am-9:00pm,Open 7 Days a Week&lt;/font&gt; &lt;font color="brown" size="5"&gt;Walk-ins &amp;amp; Appointment Welcome&lt;/font&gt; &lt;font color="green" size="5"&gt;&lt;i&gt;💕 Take Your Mind Away From All The Stress 💕&lt;/i&gt;&lt;/font&gt;&lt;i&gt; &lt;img border="0" src="http://text.glitter-graphics.net/s/f.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/r.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/n.gif"/&gt; &lt;font color="blue" size="5"&gt;☛ 1632 westwood blvd la ca 90024 &lt;font color="blue" size="4"&gt; Between Santa Monica Bl + Wilshire Bl &lt;/font&gt; &lt;a href="https://www.google.com/maps/place/1632+Westwood+Blvd,+Los+Angeles,+CA+90024/@34.0525251,-118.4387788,17z/data=!3m1!4b1!4m2!3m1!1s0x80c2bb8262bc203f:0x58adffbf9501785c" target="_blank"&gt;Click Here for map&lt;/a&gt;&lt;/font&gt; &lt;/i&gt;&lt;/i&gt;&lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/center&gt; </t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;table align="middle" border="0" cellspacing="2" width="100%25"&gt; &lt;tr&gt; &lt;td align="center"&gt; &lt;div style="background-color:pink"&gt; &lt;img border="0" src="http://text.glitter-graphics.net/tpurp/v.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/p.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/e.gif"/&gt; &lt;font color="Green" size="6"&gt;★★★   Best Massage In Town  ★★★&lt;/font&gt; &lt;font color="blue" size="5"&gt; ♣ Shiatsu ♣ Swedish ♣ Deep Tissue ♣ Light Touch ♣ 4 hands ♣ &lt;/font&gt;  &lt;font color="green" size="5"&gt;✦ Experience the Remarkable Soothing Treatment ☆ Magic Hands ✦&lt;/font&gt; &lt;font color="red" size="6"&gt; ☎ CALL NOW: 310-446-0765  &lt;/font&gt; &lt;font color="green" size="4"&gt;10am-9:00pm,Open 7 Days a Week&lt;/font&gt; &lt;font color="brown" size="5"&gt;Walk-ins &amp;amp; Appointment Welcome&lt;/font&gt; &lt;font color="green" size="5"&gt; 💕 Take Your Mind Away From All The Stress 💕 &lt;/font&gt;  &lt;img border="0" src="http://text.glitter-graphics.net/s/f.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/r.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/n.gif"/&gt; &lt;font color="blue" size="5"&gt;☛ 1632 westwood blvd la ca 90024 &lt;font color="blue" size="4"&gt; Between Santa Monica Bl + Wilshire Bl &lt;/font&gt; &lt;a href="https://www.google.com/maps/place/1632+Westwood+Blvd,+Los+Angeles,+CA+90024/@34.0525251,-118.4387788,17z/data=!3m1!4b1!4m2!3m1!1s0x80c2bb8262bc203f:0x58adffbf9501785c" target="_blank"&gt;Click Here for map&lt;/a&gt;&lt;/font&gt;   &lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/center&gt; </t>
   </si>
   <si>
     <t>🏵 VIP  ❤❤▬ⓢⓟⓔⓒⓘⓐⓛ▬💋▬▬🌈🌈▬👉 Best Service in Town 💋 New Staff</t>
@@ -566,7 +569,7 @@
     <t>7146787035</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;🎈 🎈 Hello Gentleman, (: 🎈 🎈 TIFFANY &amp;amp; Lisa, we are Here 2 Serve U 20 &amp;amp; 21 yr old, 34D-22-35 5'2" / 34C-23-35 100lb READY 4 SOME NAKED FUN, ARE YOU? CALL / TEXT 714-678-7035 PIT STOP 9050 SLAUSON PICO RIVERA 90660 **** SLAUSON AND ROSEMEAD - SAME PARKING LOT AS MARISCOS = 1 MILE WEST OF 605 ****&lt;/b&gt; </t>
+    <t xml:space="preserve">  🎈 🎈 Hello Gentleman, (: 🎈 🎈 TIFFANY &amp;amp; Lisa, we are Here 2 Serve U 20 &amp;amp; 21 yr old, 34D-22-35 5'2" / 34C-23-35 100lb READY 4 SOME NAKED FUN, ARE YOU? CALL / TEXT 714-678-7035 PIT STOP 9050 SLAUSON PICO RIVERA 90660 **** SLAUSON AND ROSEMEAD - SAME PARKING LOT AS MARISCOS = 1 MILE WEST OF 605 ****  </t>
   </si>
   <si>
     <t>😘 💋 （๏人 ๏）_ HOT ¥OUNG 😘💋 Nak1d * BODY 2 BODY*♥* Choose YOUR Hotties *♥*😘 💋 🎈 Actual Pics</t>
@@ -593,7 +596,7 @@
     <t>Hollywood, Los Angeles, West Hollywood</t>
   </si>
   <si>
-    <t>Welcome to my Soothing Sanctuary! If your looking to relax and unwind i'm just the lady to see. I provide both swedish and deep tissue massage, you can request for either one or the other or both if you choose. I do have a table, all the essentials, such as oil (unscented &amp; hemp), cream, aromatherapy, salt scrub and if you like the feeling of feathers that is also offered!          200 - 1 Hr. Deep Tissue/Sports FBSM      150 - 1Hr Swedish FBSM        90 min. Swedish or Deep Tissue Massage + 50       &lt;b&gt;100 - 30min. Swedish or Deep Tissue&lt;/b&gt;         + 5 - Sea Salt Scrub      + 10 Hemp Oil      323*891*4201        ~ Sonja</t>
+    <t>Welcome to my Soothing Sanctuary! If your looking to relax and unwind i'm just the lady to see. I provide both swedish and deep tissue massage, you can request for either one or the other or both if you choose. I do have a table, all the essentials, such as oil (unscented &amp; hemp), cream, aromatherapy, salt scrub and if you like the feeling of feathers that is also offered!          200 - 1 Hr. Deep Tissue/Sports FBSM      150 - 1Hr Swedish FBSM        90 min. Swedish or Deep Tissue Massage + 50        100 - 30min. Swedish or Deep Tissue          + 5 - Sea Salt Scrub      + 10 Hemp Oil      323*891*4201        ~ Sonja</t>
   </si>
   <si>
     <t>1043</t>
@@ -626,7 +629,7 @@
     <t>0674717 1179749 1179727953</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt; &lt;b&gt; 🌌&lt;a&gt; I.V.Y 🌌&lt;/a&gt; ASIAN &amp;amp; LATINA &amp;amp; WHITE 🌌 TABLE SHOWER 🌌 Swedish • Deep Tissue 🌌 9AM TO 9PM &lt;a href="https://www.google.com/maps/place/13912+Francisquito+Ave,+Baldwin+Park,+CA+91706/@34.0674717,-117.974984,17z/data=!3m1!4b1!4m5!3m4!1s0x80c2d709e94c8d11:0x309dc3a5b77f7b7a!8m2!3d34.0674717!4d-117.9727953" target="_blank"&gt;🔶CLICK... MAP 🔶 Hacienda Heights / AZUSA &lt;/a&gt;&lt;/b&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;   🌌&lt;a&gt; I.V.Y 🌌&lt;/a&gt; ASIAN &amp;amp; LATINA &amp;amp; WHITE 🌌 TABLE SHOWER 🌌 Swedish • Deep Tissue 🌌 9AM TO 9PM &lt;a href="https://www.google.com/maps/place/13912+Francisquito+Ave,+Baldwin+Park,+CA+91706/@34.0674717,-117.974984,17z/data=!3m1!4b1!4m5!3m4!1s0x80c2d709e94c8d11:0x309dc3a5b77f7b7a!8m2!3d34.0674717!4d-117.9727953" target="_blank"&gt;🔶CLICK... MAP 🔶 Hacienda Heights / AZUSA &lt;/a&gt; &lt;/ol&gt;</t>
   </si>
   <si>
     <t>1021</t>
@@ -710,7 +713,7 @@
     <t>9492015842</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;i&gt;&lt;b&gt;&lt;i&gt;&lt;b&gt; █████▌▌▌▌▌▌▌▌🔴🔵🔴🔵🔴🔵▌▌▌▌▌▌█████▌ ★I DO YOUR RUBDOWN RIGHT!★ ★THE JEWEL OF ORANGE COUNTY★ ★TANTALIZING ADDICTING TOUCH!★ ★MESMERIZING FEMININE ENERGY!★ ★SEXY SURREAL HYPNOTIC VIBRATION★ ★LOVELY SENSUAL TANTRA PROSTATE★ ★AMAZING EDGING TECHNIQUES TOO!★ ★WARM COZY PRIVATE PENTHOUSE★ ★EXOTIC OILS, SHOWER AVAILABLE★ ★ENCHANTING FANTASY ESCAPE!★ ★SENSUAL TANTRA PROSTATE★ ★VANESSA 949 201 5842★ █████▌▌▌▌▌▌▌▌🔴🔵🔴🔵🔴🔵▌▌▌▌▌▌█████▌ &lt;i&gt;&lt;b&gt; ✘ℴ ❤️✘ℴ I'm an Elite, Naughty Alluring Vixen by Nature so expect a deliberate slow build-up of Relentless Teasing rewarding you with waves of Intoxicating pleasures. Sensual Bodyrub Extraordinaire with Deep Penetrating Healing Body Oils, Aromatherapy, Topless, Lingerie, Visuals, Ambient chill out Vibrations, Soulful lucid ambiance, Beautiful Laser starlite, Warm and Cozy. Toe Curling Special. Sensual, Tantra, Prostate. Now Awaiting the deserving...... Might that be you? ✘ℴ ❤️✘ℴ Come to Laguna Hills and Engage in a Titillating Wonder Rub session Featuring my tender loving touch liken to sweet honey.... Guaranteed, no other touch you've experienced can compare. My unique bodyrub sessions are intentionally designed to melt your stress and tension into Oblivian and you instantly will become addicted! ✘ℴ ❤️ ✘ℴ Gentlemen, I am your Gorgeous Guide to sensual fulfillment... gifting you with forbidden fruits and pleasures through touch. Once found only in your dreams.......but now I am your reality! ✘ℴ ❤️✘ℴ Have you been desiring a luxurious golden beauty to awaken those long forgotten times of sensory touch splendor? And do you realize that you've just stumbled upon an extremely rare, sexy jewel of a woman that will ultimately seduce your stress and tension away with untamed tease &amp;amp; please skills? ✘ℴ ❤️✘ℴ With my Diverse mix of Black, Italian, Egyptian, Cherokee Indian, West Indian, and Irish, you will surely become captivated as you're in the presence of a true living Goddess, not a personification. One who will be gifting you with her natual abilities of sensual gratification through sensual expression, uninhibited sexy touch! I embody all of the many attributes that an alluring Goddess will posess, from my Empathy and Intuitiveness, Hourglass fine curves, to my silky smooth honey kissed complextion, Luscious full red lips, Gorgeous green cat eyes, Intellect, Witticism and more ✘ℴ ❤️✘ℴ Ready for some fun times and relaxing pleasures? Alright, Lets go... I want you to just kick back and surrender yourself to me, you are in good hands and I will make everything all right. As you begin to unwind and Feel my warm seducing hands, soft and silky, Gently moving rhythmically across your deserving body, surrounding you with a delicious touch elixer of seamless strokes and caresses, you will know that you've come to the right place! ✘ℴ ❤️✘ℴ As I personalize your session with fun fantasies aforementioned, you will be most Intrigued with my ability to satiate you with passion via compassion. As a seasoned sensualist, Caressing your secret places and most hidden Intimate parts with a sultry savory twist.... is so second nature to me. ✘ℴ ❤️✘ℴ I sway in motion, continuously delighting and sending shivers and quivers through you guaranteed to leave you breathless! My Sensual Specialities are your sheer delight! Come to my secluded private penthouse and receive Unparallel loving Care and nurturing from a certified experienced Artisan. I have the Most Beautiful Lucid Ambiance and you most certainly will agree. Plush, State of the art padded Table, Warm Custom Custom made Oils, Lotions and Potions. Aromatherapy, Soothing Enchanting Music, Ambient Laserstar Lighting.....A truly Euphoric atmosphere! ✘ℴ ❤️✘ℴ The Mature Discerning Gentleman May.... ENJOY Sensual Stimulating Swedish Massage ENJOY Titillating Sensual Edging Techniques ENJOY Erotic Tantric Touch Principals ENJOY Prostate Care Wellness and Instruction ENJOY Euphoric hand and foot Sensual Massage ENJOY Topless, Lingerie, Mirrors! ✘ℴ ❤️✘ℴ Late Night Appts Available let me be your little Sweet Treat to start or end your Day or Evening.... remember I'm only a phone call away! ✘ℴ ❤️✘ℴ I continuously strive for excellence in providing a magnificent level of sophisticated, discreet, reliable service to complement the most Satisfying Sensual Body experience available for your time. &lt;/b&gt;&lt;/i&gt; &lt;/b&gt;&lt;/i&gt;&lt;/b&gt;&lt;/i&gt;</t>
+    <t xml:space="preserve">      █████▌▌▌▌▌▌▌▌🔴🔵🔴🔵🔴🔵▌▌▌▌▌▌█████▌ ★I DO YOUR RUBDOWN RIGHT!★ ★THE JEWEL OF ORANGE COUNTY★ ★TANTALIZING ADDICTING TOUCH!★ ★MESMERIZING FEMININE ENERGY!★ ★SEXY SURREAL HYPNOTIC VIBRATION★ ★LOVELY SENSUAL TANTRA PROSTATE★ ★AMAZING EDGING TECHNIQUES TOO!★ ★WARM COZY PRIVATE PENTHOUSE★ ★EXOTIC OILS, SHOWER AVAILABLE★ ★ENCHANTING FANTASY ESCAPE!★ ★SENSUAL TANTRA PROSTATE★ ★VANESSA 949 201 5842★ █████▌▌▌▌▌▌▌▌🔴🔵🔴🔵🔴🔵▌▌▌▌▌▌█████▌    ✘ℴ ❤️✘ℴ I'm an Elite, Naughty Alluring Vixen by Nature so expect a deliberate slow build-up of Relentless Teasing rewarding you with waves of Intoxicating pleasures. Sensual Bodyrub Extraordinaire with Deep Penetrating Healing Body Oils, Aromatherapy, Topless, Lingerie, Visuals, Ambient chill out Vibrations, Soulful lucid ambiance, Beautiful Laser starlite, Warm and Cozy. Toe Curling Special. Sensual, Tantra, Prostate. Now Awaiting the deserving...... Might that be you? ✘ℴ ❤️✘ℴ Come to Laguna Hills and Engage in a Titillating Wonder Rub session Featuring my tender loving touch liken to sweet honey.... Guaranteed, no other touch you've experienced can compare. My unique bodyrub sessions are intentionally designed to melt your stress and tension into Oblivian and you instantly will become addicted! ✘ℴ ❤️ ✘ℴ Gentlemen, I am your Gorgeous Guide to sensual fulfillment... gifting you with forbidden fruits and pleasures through touch. Once found only in your dreams.......but now I am your reality! ✘ℴ ❤️✘ℴ Have you been desiring a luxurious golden beauty to awaken those long forgotten times of sensory touch splendor? And do you realize that you've just stumbled upon an extremely rare, sexy jewel of a woman that will ultimately seduce your stress and tension away with untamed tease &amp;amp; please skills? ✘ℴ ❤️✘ℴ With my Diverse mix of Black, Italian, Egyptian, Cherokee Indian, West Indian, and Irish, you will surely become captivated as you're in the presence of a true living Goddess, not a personification. One who will be gifting you with her natual abilities of sensual gratification through sensual expression, uninhibited sexy touch! I embody all of the many attributes that an alluring Goddess will posess, from my Empathy and Intuitiveness, Hourglass fine curves, to my silky smooth honey kissed complextion, Luscious full red lips, Gorgeous green cat eyes, Intellect, Witticism and more ✘ℴ ❤️✘ℴ Ready for some fun times and relaxing pleasures? Alright, Lets go... I want you to just kick back and surrender yourself to me, you are in good hands and I will make everything all right. As you begin to unwind and Feel my warm seducing hands, soft and silky, Gently moving rhythmically across your deserving body, surrounding you with a delicious touch elixer of seamless strokes and caresses, you will know that you've come to the right place! ✘ℴ ❤️✘ℴ As I personalize your session with fun fantasies aforementioned, you will be most Intrigued with my ability to satiate you with passion via compassion. As a seasoned sensualist, Caressing your secret places and most hidden Intimate parts with a sultry savory twist.... is so second nature to me. ✘ℴ ❤️✘ℴ I sway in motion, continuously delighting and sending shivers and quivers through you guaranteed to leave you breathless! My Sensual Specialities are your sheer delight! Come to my secluded private penthouse and receive Unparallel loving Care and nurturing from a certified experienced Artisan. I have the Most Beautiful Lucid Ambiance and you most certainly will agree. Plush, State of the art padded Table, Warm Custom Custom made Oils, Lotions and Potions. Aromatherapy, Soothing Enchanting Music, Ambient Laserstar Lighting.....A truly Euphoric atmosphere! ✘ℴ ❤️✘ℴ The Mature Discerning Gentleman May.... ENJOY Sensual Stimulating Swedish Massage ENJOY Titillating Sensual Edging Techniques ENJOY Erotic Tantric Touch Principals ENJOY Prostate Care Wellness and Instruction ENJOY Euphoric hand and foot Sensual Massage ENJOY Topless, Lingerie, Mirrors! ✘ℴ ❤️✘ℴ Late Night Appts Available let me be your little Sweet Treat to start or end your Day or Evening.... remember I'm only a phone call away! ✘ℴ ❤️✘ℴ I continuously strive for excellence in providing a magnificent level of sophisticated, discreet, reliable service to complement the most Satisfying Sensual Body experience available for your time.        </t>
   </si>
   <si>
     <t>948</t>
@@ -782,6 +785,9 @@
     <t>1840 N. Hacienda Blvd. Suite #4 La Puente ca 91744 plemte of parking inside we are next to the McDonald's ☎(626)343-0973☎(626)316-0962(open 7 days 6:00 Pm to 3:00am)  I Enjoy Providing Upscale Companionship To Gentlemen Who Love To Experience A Soothing, Relaxing, Unforgettable Time! Come Experience A Time Of Relaxation &amp; Complete Satisfaction Sexual Aromas! Always Unrushed, Discreet &amp; Respectful To Your Needs!Come and enjoy the happy hour with me😙😍😚😍¨¨*•-✨ ✨-Disfruto proveyendo compañía de lujo a los caballeros que aman experimentar un tiempo calmante, relajante, inolvidable! Venga a experimentar un tiempo de relajación y satisfacción completa ¡Masaje sexual! Siempre, discreto y respetuoso con sus necesidades! Vino y disfrutó de la hora feliz conmigo 💑🖑👄👋</t>
   </si>
   <si>
+    <t>224</t>
+  </si>
+  <si>
     <t>♡♥♥♥♥ Hot Ladies ☆★★★★★ ☎ (626)343-0973♡♥♥♥♥ ☆6:00Pm to 3:00Am ★☆★☆ ♥♥♥♥ ♡☆ ★★★★♡♥♥♥♥♥ -</t>
   </si>
   <si>
@@ -797,7 +803,7 @@
     <t>6263378558</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt;&lt;font color="blue"&gt;&lt;b&gt;&lt;i&gt;Tired?&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;center&gt; &lt;center&gt;&lt;font color="blue"&gt;&lt;b&gt;&lt;i&gt;Stressed?&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;center&gt; &lt;center&gt;&lt;font color="blue"&gt;&lt;b&gt;&lt;i&gt;Simply need to relax?&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;center&gt; ♥💋 Our goal is to provide you a relaxing environment that enables you to unwind and rid yourself any tension, anxiety, and stress ♥💋 Each highly trained therapist strives to provide you with a relaxed, comfortable environment that fosters relaxation ♥💋 Quiet, Clean, Private rooms to help you fully relax ♥💋 Open 7 Days for your convenience from 9AM-9PM ♥💋 Same-Day Appointments/Walk-Ins Welcome *¨¨*:•. ★.•: &lt;b&gt;(626) 337-8558&lt;/b&gt; :•. ★.•:*¨¨* ❤ &lt;b&gt;&lt;u&gt;GREEN SPA&lt;/u&gt;&lt;/b&gt; ❤ ❤ ASIANS and LATINAS ❤ • Location: 13020 Francisquito Ave #1, Baldwin Park, CA 91706&lt;u&gt;&lt;/u&gt; &lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt;&lt;font color="blue"&gt;  Tired?  &lt;/font&gt;&lt;center&gt; &lt;center&gt;&lt;font color="blue"&gt;  Stressed?  &lt;/font&gt;&lt;center&gt; &lt;center&gt;&lt;font color="blue"&gt;  Simply need to relax?  &lt;/font&gt;&lt;center&gt; ♥💋 Our goal is to provide you a relaxing environment that enables you to unwind and rid yourself any tension, anxiety, and stress ♥💋 Each highly trained therapist strives to provide you with a relaxed, comfortable environment that fosters relaxation ♥💋 Quiet, Clean, Private rooms to help you fully relax ♥💋 Open 7 Days for your convenience from 9AM-9PM ♥💋 Same-Day Appointments/Walk-Ins Welcome *¨¨*:•. ★.•:  (626) 337-8558  :•. ★.•:*¨¨* ❤   GREEN SPA   ❤ ❤ ASIANS and LATINAS ❤ • Location: 13020 Francisquito Ave #1, Baldwin Park, CA 91706   &lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>❌ ⭕  ▃▃▃ ❌ ⭕💗 ❤ ❗❗❗ASIAN z❗❗❗LATINA z❗❗❗╠╣OT❗❗❗❌⭕ ▃▃▃  ❤  💗 ❤ 💗❤ ( 626) 337- 8558 ❤ ▃▃▃GREEN SPA</t>
@@ -1034,7 +1040,7 @@
     <t>[u'135975093']</t>
   </si>
   <si>
-    <t xml:space="preserve">send your info on the first TEXT or no answe prefer men over 40 &lt;u&gt;bbw thick chubbie real BIG ones &lt;/u&gt; text your info age race description  sensual rub half 8O  hour IOO  text ONLY  treeten four ate two one  ate for for  venice////405  No explicit texts  NO FLAKES   &lt;a href="http://www.Skylowlow.tumblr.com" target="_blank"&gt;www.Skylowlow.tumblr.com&lt;/a&gt; </t>
+    <t xml:space="preserve">send your info on the first TEXT or no answe prefer men over 40  bbw thick chubbie real BIG ones   text your info age race description  sensual rub half 8O  hour IOO  text ONLY  treeten four ate two one  ate for for  venice////405  No explicit texts  NO FLAKES   &lt;a href="http://www.Skylowlow.tumblr.com" target="_blank"&gt;www.Skylowlow.tumblr.com&lt;/a&gt; </t>
   </si>
   <si>
     <t>900</t>
@@ -1154,7 +1160,7 @@
     <t>2133826699</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;i&gt; Get a wonderful happy massage!! [. ♥100% Totally body relax ♥100%SUPER Comfortable ♥]! You Will Not Be Dissapointed!!!...young skillful girl here, give you the best massage. Totally Relax your whole body and your mind. Don27;t wait......Come!!! 💥💥💥 滿足( man zu)spa💥💥💥 💖 941. S Vermont Ave CA 90006💖 Happy relax time : 11:00am~11:00pm &lt;a&gt; ⭐Call ☞ ☎: 213-382-6699 ⭐&lt;/a&gt; &lt;/i&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">    Get a wonderful happy massage!! [. ♥100% Totally body relax ♥100%SUPER Comfortable ♥]! You Will Not Be Dissapointed!!!...young skillful girl here, give you the best massage. Totally Relax your whole body and your mind. Don27;t wait......Come!!! 💥💥💥 滿足( man zu)spa💥💥💥 💖 941. S Vermont Ave CA 90006💖 Happy relax time : 11:00am~11:00pm &lt;a&gt; ⭐Call ☞ ☎: 213-382-6699 ⭐&lt;/a&gt;   </t>
   </si>
   <si>
     <t>💎⬛️🛄◥◣◥◣◥◣◥◣◥◣🛄⬛️ ASIAN DOLL HOUSE... ⬛️🛄🔵🛄⬛️EVERY MAN`S FANTASY ⬛️🛄◥◣◥◣◥◣◥◣🛄 KOREAN TOWN ⬛</t>
@@ -1229,7 +1235,7 @@
     <t>0113818 1183083295 4474297</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt;&lt;i&gt;&lt;a&gt;&lt;b&gt;——————— ◆ ☆ Wonderful Bodywork ☆ ◆———————&lt;/b&gt;&lt;/a&gt; &lt;ol&gt;▬▬► ENJOY YOUR VISIT HERE TODAY ! ▬▬► Visit us to see the friendliest and the best SPA in Town&lt;/ol&gt; &lt;a&gt;?———————— ◆ Call 310 - 636 - 0020 ◆ ————————?&lt;/a&gt; &lt;ol&gt;▬▬► near W. Washington Blvd and Sepulveda Blvd ▬▬► 4133 Sepulveda Blvd., Culver City, California 90230&lt;/ol&gt; &lt;a&gt;?———————— ◆&lt;a href="https://www.google.com/maps/place/4133+Sepulveda+Blvd,+Culver+City,+CA+90230/@34.0113818,-118.3083295,13z/data=!4m2!3m1!1s0x80c2ba3e3ab9182f:0x1f44742973fc2973" target="_blank"&gt;&lt;b&gt; MAP : CLICK HERE &lt;/b&gt;&lt;/a&gt;&lt;a&gt;◆ ————————?&lt;/a&gt; &lt;ol&gt;▬▬► 7 days a week ▬▬► Clean and Safe&lt;/ol&gt; &lt;b&gt;&lt;a&gt;———————— ◆ Call 310 - 636 - 0020 ◆ ———————— &lt;/a&gt;&lt;/b&gt;&lt;/a&gt;&lt;/i&gt;&lt;/ol&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt; &lt;a&gt; ——————— ◆ ☆ Wonderful Bodywork ☆ ◆——————— &lt;/a&gt; &lt;ol&gt;▬▬► ENJOY YOUR VISIT HERE TODAY ! ▬▬► Visit us to see the friendliest and the best SPA in Town&lt;/ol&gt; &lt;a&gt;?———————— ◆ Call 310 - 636 - 0020 ◆ ————————?&lt;/a&gt; &lt;ol&gt;▬▬► near W. Washington Blvd and Sepulveda Blvd ▬▬► 4133 Sepulveda Blvd., Culver City, California 90230&lt;/ol&gt; &lt;a&gt;?———————— ◆&lt;a href="https://www.google.com/maps/place/4133+Sepulveda+Blvd,+Culver+City,+CA+90230/@34.0113818,-118.3083295,13z/data=!4m2!3m1!1s0x80c2ba3e3ab9182f:0x1f44742973fc2973" target="_blank"&gt;  MAP : CLICK HERE  &lt;/a&gt;&lt;a&gt;◆ ————————?&lt;/a&gt; &lt;ol&gt;▬▬► 7 days a week ▬▬► Clean and Safe&lt;/ol&gt;  &lt;a&gt;———————— ◆ Call 310 - 636 - 0020 ◆ ———————— &lt;/a&gt; &lt;/a&gt; &lt;/ol&gt;&lt;/ol&gt;</t>
   </si>
   <si>
     <t>★☆★ ▬ 🎯▬🎀▬🍎▬💚▬►▬🎯▬🎀 ★ —★☆★ ▬ 🎯▬🎀▬🍎▬💚▬►▬🎯— TOO GOOD TO BE TRUE —★☆★ ▬ 🎯▬🎀▬🍎▬💚▬►▬🎯▬🎀</t>
@@ -1244,7 +1250,7 @@
     <t>8183840203</t>
   </si>
   <si>
-    <t xml:space="preserve">Come and let me massages your stress away. Private place just you and I. Fragrance free lotion and oils are used and there is a shower available. Full body, relaxing, enjoyable massage. &lt;b&gt;I have red hair, green eyes, and 38 D real breast. Smooth skin and a nice full firm backside. I'm 5 '9, curvy, cute, and just a really nice person. I am 39 and a mature person.&lt;/b&gt; I do not play games like some in the business. So give me a call and let me rub all your stress away.   &lt;b&gt;Call for pricing 818-384-0203 (No Texting, No Video Chat, No Out Call)&lt;/b&gt;    Hours M - F (9am - 7 pm)  Sat (9 am - 6 pm) Sun (12 pm - 5 pm)    Give me a call I look forward to rubbing all over you.   &lt;b&gt;Kellie&lt;/b&gt; </t>
+    <t xml:space="preserve">Come and let me massages your stress away. Private place just you and I. Fragrance free lotion and oils are used and there is a shower available. Full body, relaxing, enjoyable massage.  I have red hair, green eyes, and 38 D real breast. Smooth skin and a nice full firm backside. I'm 5 '9, curvy, cute, and just a really nice person. I am 39 and a mature person.  I do not play games like some in the business. So give me a call and let me rub all your stress away.    Call for pricing 818-384-0203 (No Texting, No Video Chat, No Out Call)     Hours M - F (9am - 7 pm)  Sat (9 am - 6 pm) Sun (12 pm - 5 pm)    Give me a call I look forward to rubbing all over you.    Kellie  </t>
   </si>
   <si>
     <t>1104</t>
@@ -1358,7 +1364,7 @@
     <t>3238720338</t>
   </si>
   <si>
-    <t xml:space="preserve">🎲 Open Minded Play 🎲     &lt;u&gt;Guaranteed worth your while!&lt;/u&gt; Very Classy, Very Pretty, &lt;b&gt;COCO DELIGHT&lt;/b&gt; ,5'9,Athletic Curves, &lt;b&gt;REAL 36DDDs&lt;/b&gt; ,small waist, Sexy toned Ass, and Endless Legs!!!    ℳidas Touch body2body deepbodysliding Supreme Swedish technique by a Sexy &lt;b&gt;CERTIFIED &lt;/b&gt; Afro-Cubana. DISCREET SEDUCTRESS💋 ★★★★★ Massage Experience 👌👌    I live up to my ad (pics me and recent💋more on my website)! I know EXACTLY how to give you what you need!      upscale only/GENTLEMEN 35+  ☎ &lt;u&gt;CALL&lt;/u&gt; Sonny🌴 &lt;b&gt;323-872-0338&lt;/b&gt;   &lt;u&gt;&lt;/u&gt; </t>
+    <t xml:space="preserve">🎲 Open Minded Play 🎲      Guaranteed worth your while!  Very Classy, Very Pretty,  COCO DELIGHT  ,5'9,Athletic Curves,  REAL 36DDDs  ,small waist, Sexy toned Ass, and Endless Legs!!!    ℳidas Touch body2body deepbodysliding Supreme Swedish technique by a Sexy  CERTIFIED   Afro-Cubana. DISCREET SEDUCTRESS💋 ★★★★★ Massage Experience 👌👌    I live up to my ad (pics me and recent💋more on my website)! I know EXACTLY how to give you what you need!      upscale only/GENTLEMEN 35+  ☎  CALL  Sonny🌴  323-872-0338       </t>
   </si>
   <si>
     <t>I L❤️VE SEEING YOU HAPPY! W/ My💋Lips (o)(o) &amp; ✨Fingertips✨(Sexy🌹Classy DDD CMT)➡Amazing mASSage</t>
@@ -1472,7 +1478,7 @@
     <t>3038879036</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;b&gt;&lt;/b&gt; 20 Years Experience - Female, trained in various bodywork techniques including Swedish, Shiatsu, Hawaiian Lomi Lomi and Healing Tantric practices. Style is slow, sensuous, with long flowing strokes. Full body...intuitive and soothing. &lt;b&gt;Draping to fit your comfort level. Certified Massage Therapist. Deep, medium or lite pressure. Office is in a warm beautiful private Cedar Cabin in serene garden setting! General times available - 9am to 8pm &lt;b&gt;What clients are saying: &lt;/b&gt; &lt;i&gt;"Such a fresh mysterious Exotic presence! I feel more relaxed with Penny than any other Massage Therapist. She has heavenly hands with just the right amount of pressure...The perfect combination of therapeutic skill and sensuous touch!." Jack "Magical! I have looked for a long time to find a Sensual Therapist I can trust who can take care of my body the way I need. Penny is warm, professional and genuine. She is the real deal, a gem!" Brian " "Wow...now that's a massage, wish I had called Penny sooner. Excellent therapist, Gorgeous woman and Gifted healer..just the best. She has me as a regular for life! " Scott &lt;/i&gt; Therapeutic - $120 hour Sensual Therapeutic Combo - $180 hour ( Gentleman 30 plus only ) 90 min. Combo - $260 Longer sessions available upon request! Donation payable Cash only Call Penny at 303-887-9036 &lt;/b&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">     20 Years Experience - Female, trained in various bodywork techniques including Swedish, Shiatsu, Hawaiian Lomi Lomi and Healing Tantric practices. Style is slow, sensuous, with long flowing strokes. Full body...intuitive and soothing.  Draping to fit your comfort level. Certified Massage Therapist. Deep, medium or lite pressure. Office is in a warm beautiful private Cedar Cabin in serene garden setting! General times available - 9am to 8pm  What clients are saying:    "Such a fresh mysterious Exotic presence! I feel more relaxed with Penny than any other Massage Therapist. She has heavenly hands with just the right amount of pressure...The perfect combination of therapeutic skill and sensuous touch!." Jack "Magical! I have looked for a long time to find a Sensual Therapist I can trust who can take care of my body the way I need. Penny is warm, professional and genuine. She is the real deal, a gem!" Brian " "Wow...now that's a massage, wish I had called Penny sooner. Excellent therapist, Gorgeous woman and Gifted healer..just the best. She has me as a regular for life! " Scott   Therapeutic - $120 hour Sensual Therapeutic Combo - $180 hour ( Gentleman 30 plus only ) 90 min. Combo - $260 Longer sessions available upon request! Donation payable Cash only Call Penny at 303-887-9036   </t>
   </si>
   <si>
     <t>928</t>
@@ -1544,7 +1550,7 @@
     <t>4548526 3103262660</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;a href="http://cooltext.com" target="_blank"&gt;&lt;img alt="Best Relaxing Asian Massage" height="89" src="http://images.cooltext.com/4548526.gif" width="500"/&gt;&lt;/a&gt;  &lt;p&gt; &lt;h2&gt;310-326-2660&lt;/h2&gt; &lt;/p&gt;  &lt;span style="color: black; font-size: xx-large;"&gt;RELAX AND UNWIND WITH US !&lt;/span&gt;  &lt;p&gt; Full Body Rub Massage by Professional Asian &lt;i&gt;masseuse&lt;/i&gt; &lt;/p&gt;  &lt;p&gt;&lt;span style="color: #ff0000;"&gt;SPECIAL SUMMER SALE !&lt;/span&gt;&lt;/p&gt;  &lt;p&gt;&lt;span style="color: #ff0000;"&gt;MONDAY TO FRIDAY between 8AM - 2PM    &lt;/span&gt;&lt;/p&gt;  &lt;p&gt;&lt;span style="color: #ff0000;"&gt;$50 ONLY &lt;/span&gt; &lt;span style="color: #ff0000;"&gt;Includes Full Body Hot Oil Massage plus Table Shower&lt;/span&gt;&lt;/p&gt;  &lt;p&gt;&lt;span style="color: #ff0000;"&gt;( regular price after 2pm $80 ) &lt;/span&gt;&lt;/p&gt;  &lt;p&gt;&lt;span style="color: purple;"&gt;Unforgettable Experience! .. &lt;span style="color: black;"&gt;Best VIP FULL BODY RUB Service &lt;/span&gt;&lt;/span&gt;&lt;/p&gt;  &lt;p&gt;&lt;span style="color: red; font-size: xx-large;"&gt;OPEN 8am - 10pm  7 days&lt;/span&gt;&lt;/p&gt;  &lt;div&gt; &lt;a href="http://www.vipmassagespa.com" target="_blank"&gt;www.vipmassagespa.com&lt;/a&gt; &lt;h2&gt;VIP MASSAGE SPA&lt;/h2&gt; &lt;/div&gt;  &lt;div&gt; &lt;h2&gt;26640 Western Ave. K-1&lt;/h2&gt; &lt;h2&gt;Harbor City, CA 90710&lt;/h2&gt; &lt;/div&gt; Serving Torrance, Lomita, Harbor City, Redondo Beach, Hermosa Beach, Palos Verdes, Gardena, Carson, Hawthorne, San Pedro, Long Beach, Compton</t>
+    <t xml:space="preserve"> &lt;a href="http://cooltext.com" target="_blank"&gt;&lt;img alt="Best Relaxing Asian Massage" height="89" src="http://images.cooltext.com/4548526.gif" width="500"/&gt;&lt;/a&gt;  &lt;p&gt; &lt;h2&gt;310-326-2660&lt;/h2&gt; &lt;/p&gt;  &lt;span style="color: black; font-size: xx-large;"&gt;RELAX AND UNWIND WITH US !&lt;/span&gt;  &lt;p&gt; Full Body Rub Massage by Professional Asian  masseuse  &lt;/p&gt;  &lt;p&gt;&lt;span style="color: #ff0000;"&gt;SPECIAL SUMMER SALE !&lt;/span&gt;&lt;/p&gt;  &lt;p&gt;&lt;span style="color: #ff0000;"&gt;MONDAY TO FRIDAY between 8AM - 2PM    &lt;/span&gt;&lt;/p&gt;  &lt;p&gt;&lt;span style="color: #ff0000;"&gt;$50 ONLY &lt;/span&gt; &lt;span style="color: #ff0000;"&gt;Includes Full Body Hot Oil Massage plus Table Shower&lt;/span&gt;&lt;/p&gt;  &lt;p&gt;&lt;span style="color: #ff0000;"&gt;( regular price after 2pm $80 ) &lt;/span&gt;&lt;/p&gt;  &lt;p&gt;&lt;span style="color: purple;"&gt;Unforgettable Experience! .. &lt;span style="color: black;"&gt;Best VIP FULL BODY RUB Service &lt;/span&gt;&lt;/span&gt;&lt;/p&gt;  &lt;p&gt;&lt;span style="color: red; font-size: xx-large;"&gt;OPEN 8am - 10pm  7 days&lt;/span&gt;&lt;/p&gt;  &lt;div&gt; &lt;a href="http://www.vipmassagespa.com" target="_blank"&gt;www.vipmassagespa.com&lt;/a&gt; &lt;h2&gt;VIP MASSAGE SPA&lt;/h2&gt; &lt;/div&gt;  &lt;div&gt; &lt;h2&gt;26640 Western Ave. K-1&lt;/h2&gt; &lt;h2&gt;Harbor City, CA 90710&lt;/h2&gt; &lt;/div&gt; Serving Torrance, Lomita, Harbor City, Redondo Beach, Hermosa Beach, Palos Verdes, Gardena, Carson, Hawthorne, San Pedro, Long Beach, Compton</t>
   </si>
   <si>
     <t>💗🌺💖💗🌺💖💟 Grand Opening 💖💗🌺 Best Asian Relaxing 💖💗🌺 VIP Massage  💗🌺💖 310-326-2660 💖</t>
@@ -1589,7 +1595,7 @@
     <t>3234624214</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;b&gt;&lt;font color="purple"&gt;&lt;font size="4"&gt;"You won't believe till you are experienced it!" We are providing M4M Massage by our good looking masseurs who also have the high skill in Thai massage. We have trained M4M massage from Thailand. Our place is like an oasis in the middle of a bustling metropolis: the perfect place to relax and recharge your body from the chaos of daily living. Let us nourish your body and soul with a good service, privacy, and nice massage rooms. Come stressed. Leave relaxed. Our guys will massage your all worries and stresses away PLEASE KINDLY CONTACT 323.462.4214 &lt;i&gt;We welcome a diverse group of clients; regardless of age, race, or body size.&lt;/i&gt; &lt;font color="blue" size="4"&gt; Professional M4M Massage Thai Massage, Swedish, Combination, Deep Tissue, Body Scrub, and 4 Hands Massage Free Shower and Full Hour Service, Parking lot, and Accepted Credit Card&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/b&gt;&lt;/center&gt; </t>
+    <t xml:space="preserve"> &lt;center&gt;  &lt;font color="purple"&gt;&lt;font size="4"&gt;"You won't believe till you are experienced it!" We are providing M4M Massage by our good looking masseurs who also have the high skill in Thai massage. We have trained M4M massage from Thailand. Our place is like an oasis in the middle of a bustling metropolis: the perfect place to relax and recharge your body from the chaos of daily living. Let us nourish your body and soul with a good service, privacy, and nice massage rooms. Come stressed. Leave relaxed. Our guys will massage your all worries and stresses away PLEASE KINDLY CONTACT 323.462.4214  We welcome a diverse group of clients; regardless of age, race, or body size.  &lt;font color="blue" size="4"&gt; Professional M4M Massage Thai Massage, Swedish, Combination, Deep Tissue, Body Scrub, and 4 Hands Massage Free Shower and Full Hour Service, Parking lot, and Accepted Credit Card&lt;/font&gt;&lt;/font&gt;&lt;/font&gt; &lt;/center&gt; </t>
   </si>
   <si>
     <t>🌈💕🌈 Recommend Gen't Spa 🌈💕🌈 M4M  Asia boys 🌈💕🌈</t>
@@ -1601,7 +1607,7 @@
     <t>Los Angeles, NEW Private Location Near LAX 405/105, Westside</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;p&gt; &lt;center&gt;&lt;font color="red"&gt;&lt;h1&gt;&lt;b&gt;Stop By And Relax Before Heading Off To Your Next Destination&lt;p&gt; &lt;p&gt; Spend Time with A Independent Person with True Skills and Lots Of Extra Touchest &lt;/p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/h1&gt;&lt;/font&gt;&lt;/center&gt;&lt;p&gt; &lt;p&gt; Wouldn’t you like to start or end your dayl with a relaxing massage before heading off to your final destination?&lt;p&gt; Is your work week very stressful? I have just the relaxing tranquil private environment that can ease you through the rest of your day.&lt;p&gt; I use nice high quality products, always fresh clean sheets and towels, a warm shower along with a very comfortable massage table. Now let me also say, I am equally at ease whether you wish to be draped or whether you're more comfortable being totally natural. The room is lit by soft candlelight and soothing soft music to lull you into a dreamlike state, and best of all, I'm NEVER rush.&lt;p&gt; My studio located just minutes from LAX, with plenty of street parking.&lt;p&gt; As a certified professional CMT, I'm train in many massage specialties, but I bet you would benefit the most from my mixer of Lomi Lomi, Swedish and Deep Tissues to help work out your body stress area.&lt;p&gt; This is a service designed specially with you in mind, but please be aware this IS a private Independent facility, I am unable to accommodated walk-in appointment; please schedule your appointment with at least 2-hours notice.&lt;p&gt; &lt;b&gt;&lt;u&gt;ARE YOU COMING FROM OUT-OF-TOWN&lt;/u&gt;&lt;/b&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;</t>
+    <t xml:space="preserve"> &lt;p&gt; &lt;center&gt;&lt;font color="red"&gt;&lt;h1&gt; Stop By And Relax Before Heading Off To Your Next Destination&lt;p&gt; &lt;p&gt; Spend Time with A Independent Person with True Skills and Lots Of Extra Touchest &lt;/p&gt;&lt;/p&gt; &lt;/h1&gt;&lt;/font&gt;&lt;/center&gt;&lt;p&gt; &lt;p&gt; Wouldn’t you like to start or end your dayl with a relaxing massage before heading off to your final destination?&lt;p&gt; Is your work week very stressful? I have just the relaxing tranquil private environment that can ease you through the rest of your day.&lt;p&gt; I use nice high quality products, always fresh clean sheets and towels, a warm shower along with a very comfortable massage table. Now let me also say, I am equally at ease whether you wish to be draped or whether you're more comfortable being totally natural. The room is lit by soft candlelight and soothing soft music to lull you into a dreamlike state, and best of all, I'm NEVER rush.&lt;p&gt; My studio located just minutes from LAX, with plenty of street parking.&lt;p&gt; As a certified professional CMT, I'm train in many massage specialties, but I bet you would benefit the most from my mixer of Lomi Lomi, Swedish and Deep Tissues to help work out your body stress area.&lt;p&gt; This is a service designed specially with you in mind, but please be aware this IS a private Independent facility, I am unable to accommodated walk-in appointment; please schedule your appointment with at least 2-hours notice.&lt;p&gt;   ARE YOU COMING FROM OUT-OF-TOWN  &lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>•★• —LAX -DON'T Fight That Traffic Come and Spend Some of Your Day w/me Relaxing Together</t>
@@ -1613,7 +1619,7 @@
     <t>Downtown, Los Angeles, 🔴🔴🔴🔴🔴🔴🔴🔴🔴 60 + 710 FreeWay 🔴🔴🔴🔴🔴🔴🔴🔴🔴</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;ol&gt; 💟💟▬▬❗️ &lt;a&gt;NEW MANAGER SPECIAL &lt;/a&gt;❗️ ▬▬💟💟&lt;/ol&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;ol&gt; 💟💟▬▬❗️ &lt;a&gt;NEW MANAGER SPECIAL &lt;/a&gt;❗️ ▬▬💟💟&lt;/ol&gt; </t>
   </si>
   <si>
     <t>1006</t>
@@ -2786,34 +2792,34 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
@@ -2824,16 +2830,16 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
@@ -2842,16 +2848,16 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J23" t="n">
         <v>1646</v>
       </c>
       <c r="K23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
@@ -2868,28 +2874,28 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J24" t="n">
         <v>1628</v>
       </c>
       <c r="K24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
@@ -2906,10 +2912,10 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
@@ -2918,16 +2924,16 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
@@ -2944,10 +2950,10 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
@@ -2956,16 +2962,16 @@
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L26" t="s">
         <v>23</v>
@@ -2982,10 +2988,10 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -2995,7 +3001,7 @@
       </c>
       <c r="H27" t="s"/>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J27" t="n">
         <v>1430</v>
@@ -3019,10 +3025,10 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -3032,13 +3038,13 @@
       </c>
       <c r="H28" t="s"/>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L28" t="s">
         <v>23</v>
@@ -3049,16 +3055,16 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F29" t="s">
         <v>27</v>
@@ -3067,16 +3073,16 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J29" t="n">
         <v>1348</v>
       </c>
       <c r="K29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s">
         <v>23</v>
@@ -3093,10 +3099,10 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -3105,16 +3111,16 @@
         <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J30" t="n">
         <v>1412</v>
       </c>
       <c r="K30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L30" t="s">
         <v>23</v>
@@ -3131,10 +3137,10 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -3143,16 +3149,16 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J31" t="n">
         <v>2121</v>
       </c>
       <c r="K31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s">
         <v>23</v>
@@ -3169,10 +3175,10 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F32" t="s">
         <v>27</v>
@@ -3181,16 +3187,16 @@
         <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J32" t="n">
         <v>1538</v>
       </c>
       <c r="K32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s">
         <v>23</v>
@@ -3207,10 +3213,10 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F33" t="s">
         <v>27</v>
@@ -3220,13 +3226,13 @@
       </c>
       <c r="H33" t="s"/>
       <c r="I33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L33" t="s">
         <v>23</v>
@@ -3237,16 +3243,16 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
         <v>27</v>
@@ -3255,16 +3261,16 @@
         <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J34" t="s">
         <v>70</v>
       </c>
       <c r="K34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L34" t="s">
         <v>23</v>
@@ -3281,10 +3287,10 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -3293,16 +3299,16 @@
         <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L35" t="s">
         <v>23</v>
@@ -3319,10 +3325,10 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F36" t="s">
         <v>27</v>
@@ -3331,16 +3337,16 @@
         <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J36" t="n">
         <v>1741</v>
       </c>
       <c r="K36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L36" t="s">
         <v>23</v>
@@ -3357,10 +3363,10 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F37" t="s">
         <v>27</v>
@@ -3369,16 +3375,16 @@
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J37" t="n">
         <v>1822</v>
       </c>
       <c r="K37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L37" t="s">
         <v>23</v>
@@ -3395,10 +3401,10 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F38" t="s">
         <v>27</v>
@@ -3407,16 +3413,16 @@
         <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J38" t="n">
         <v>1612</v>
       </c>
       <c r="K38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L38" t="s">
         <v>23</v>
@@ -3433,10 +3439,10 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F39" t="s">
         <v>27</v>
@@ -3445,16 +3451,16 @@
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L39" t="s">
         <v>23</v>
@@ -3471,28 +3477,28 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L40" t="s">
         <v>23</v>
@@ -3509,10 +3515,10 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -3522,13 +3528,13 @@
       </c>
       <c r="H41" t="s"/>
       <c r="I41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L41" t="s">
         <v>23</v>
@@ -3545,10 +3551,10 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F42" t="s">
         <v>27</v>
@@ -3557,16 +3563,16 @@
         <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L42" t="s">
         <v>23</v>
@@ -3583,10 +3589,10 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F43" t="s">
         <v>27</v>
@@ -3595,16 +3601,16 @@
         <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J43" t="n">
         <v>1439</v>
       </c>
       <c r="K43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L43" t="s">
         <v>23</v>
@@ -3615,34 +3621,34 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E44" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I44" t="s">
-        <v>254</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2324</v>
+        <v>255</v>
+      </c>
+      <c r="J44" t="s">
+        <v>256</v>
       </c>
       <c r="K44" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L44" t="s">
         <v>23</v>
@@ -3653,16 +3659,16 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F45" t="s">
         <v>27</v>
@@ -3671,16 +3677,16 @@
         <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I45" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J45" t="n">
         <v>1307</v>
       </c>
       <c r="K45" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L45" t="s">
         <v>23</v>
@@ -3697,28 +3703,28 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F46" t="s">
         <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H46" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I46" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J46" t="n">
         <v>1834</v>
       </c>
       <c r="K46" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L46" t="s">
         <v>23</v>
@@ -3729,16 +3735,16 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
         <v>27</v>
@@ -3747,16 +3753,16 @@
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I47" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J47" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K47" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L47" t="s">
         <v>23</v>
@@ -3773,10 +3779,10 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E48" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F48" t="s">
         <v>27</v>
@@ -3785,16 +3791,16 @@
         <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I48" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J48" t="n">
         <v>2210</v>
       </c>
       <c r="K48" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
@@ -3805,16 +3811,16 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E49" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F49" t="s">
         <v>27</v>
@@ -3823,16 +3829,16 @@
         <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I49" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J49" t="n">
         <v>1404</v>
       </c>
       <c r="K49" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L49" t="s">
         <v>23</v>
@@ -3849,10 +3855,10 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E50" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -3861,16 +3867,16 @@
         <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I50" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J50" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K50" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L50" t="s">
         <v>23</v>
@@ -3887,28 +3893,28 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E51" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F51" t="s">
         <v>27</v>
       </c>
       <c r="G51" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H51" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I51" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J51" t="n">
         <v>1631</v>
       </c>
       <c r="K51" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -3919,16 +3925,16 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E52" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F52" t="s">
         <v>27</v>
@@ -3937,16 +3943,16 @@
         <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I52" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J52" t="n">
         <v>1350</v>
       </c>
       <c r="K52" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L52" t="s">
         <v>23</v>
@@ -3963,28 +3969,28 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E53" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H53" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I53" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J53" t="n">
         <v>1550</v>
       </c>
       <c r="K53" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L53" t="s">
         <v>23</v>
@@ -4001,10 +4007,10 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E54" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F54" t="s">
         <v>27</v>
@@ -4013,16 +4019,16 @@
         <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I54" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J54" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K54" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L54" t="s">
         <v>23</v>
@@ -4039,10 +4045,10 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E55" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -4051,16 +4057,16 @@
         <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I55" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J55" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K55" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -4077,10 +4083,10 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E56" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F56" t="s">
         <v>27</v>
@@ -4089,16 +4095,16 @@
         <v>18</v>
       </c>
       <c r="H56" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I56" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J56" t="n">
         <v>1704</v>
       </c>
       <c r="K56" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L56" t="s">
         <v>23</v>
@@ -4115,10 +4121,10 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E57" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F57" t="s">
         <v>27</v>
@@ -4127,16 +4133,16 @@
         <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I57" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J57" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K57" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L57" t="s">
         <v>23</v>
@@ -4153,26 +4159,26 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E58" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F58" t="s">
         <v>27</v>
       </c>
       <c r="G58" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H58" t="s"/>
       <c r="I58" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J58" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K58" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L58" t="s">
         <v>23</v>
@@ -4189,26 +4195,26 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E59" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F59" t="s">
         <v>27</v>
       </c>
       <c r="G59" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H59" t="s"/>
       <c r="I59" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J59" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K59" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L59" t="s">
         <v>23</v>
@@ -4225,10 +4231,10 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E60" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F60" t="s">
         <v>27</v>
@@ -4237,16 +4243,16 @@
         <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I60" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J60" t="s">
         <v>42</v>
       </c>
       <c r="K60" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
@@ -4263,10 +4269,10 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E61" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F61" t="s">
         <v>27</v>
@@ -4275,16 +4281,16 @@
         <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I61" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J61" t="n">
         <v>2022</v>
       </c>
       <c r="K61" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L61" t="s">
         <v>23</v>
@@ -4301,7 +4307,7 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E62" t="s">
         <v>129</v>
@@ -4313,16 +4319,16 @@
         <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I62" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J62" t="n">
         <v>1435</v>
       </c>
       <c r="K62" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L62" t="s">
         <v>23</v>
@@ -4339,10 +4345,10 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E63" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F63" t="s">
         <v>27</v>
@@ -4351,16 +4357,16 @@
         <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I63" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="J63" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K63" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L63" t="s">
         <v>23</v>
@@ -4377,10 +4383,10 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E64" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -4390,13 +4396,13 @@
       </c>
       <c r="H64" t="s"/>
       <c r="I64" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J64" t="n">
         <v>1420</v>
       </c>
       <c r="K64" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L64" t="s">
         <v>23</v>
@@ -4413,10 +4419,10 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -4425,16 +4431,16 @@
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I65" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J65" t="n">
         <v>1515</v>
       </c>
       <c r="K65" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L65" t="s">
         <v>23</v>
@@ -4451,10 +4457,10 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E66" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -4466,7 +4472,7 @@
         <v>19</v>
       </c>
       <c r="I66" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J66" t="n">
         <v>1706</v>
@@ -4489,10 +4495,10 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E67" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F67" t="s">
         <v>27</v>
@@ -4501,16 +4507,16 @@
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I67" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J67" t="n">
         <v>1403</v>
       </c>
       <c r="K67" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L67" t="s">
         <v>23</v>
@@ -4527,10 +4533,10 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E68" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F68" t="s">
         <v>27</v>
@@ -4539,16 +4545,16 @@
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I68" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J68" t="n">
         <v>1502</v>
       </c>
       <c r="K68" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L68" t="s">
         <v>23</v>
@@ -4565,26 +4571,26 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E69" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F69" t="s">
         <v>27</v>
       </c>
       <c r="G69" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H69" t="s"/>
       <c r="I69" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J69" t="n">
         <v>1526</v>
       </c>
       <c r="K69" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L69" t="s">
         <v>23</v>
@@ -4601,10 +4607,10 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E70" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F70" t="s">
         <v>27</v>
@@ -4613,16 +4619,16 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I70" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J70" t="n">
         <v>2409</v>
       </c>
       <c r="K70" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L70" t="s">
         <v>23</v>
@@ -4633,16 +4639,16 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E71" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F71" t="s">
         <v>27</v>
@@ -4651,16 +4657,16 @@
         <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I71" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J71" t="n">
         <v>2325</v>
       </c>
       <c r="K71" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L71" t="s">
         <v>23</v>
@@ -4677,10 +4683,10 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E72" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F72" t="s">
         <v>27</v>
@@ -4689,16 +4695,16 @@
         <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I72" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J72" t="n">
         <v>2419</v>
       </c>
       <c r="K72" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L72" t="s">
         <v>23</v>
@@ -4715,10 +4721,10 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E73" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F73" t="s">
         <v>27</v>
@@ -4727,16 +4733,16 @@
         <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I73" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J73" t="n">
         <v>1508</v>
       </c>
       <c r="K73" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L73" t="s">
         <v>23</v>
@@ -4753,10 +4759,10 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E74" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -4765,16 +4771,16 @@
         <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I74" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="J74" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K74" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L74" t="s">
         <v>23</v>
@@ -4791,7 +4797,7 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E75" t="s">
         <v>129</v>
@@ -4800,19 +4806,19 @@
         <v>27</v>
       </c>
       <c r="G75" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H75" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I75" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J75" t="n">
         <v>2429</v>
       </c>
       <c r="K75" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L75" t="s">
         <v>23</v>
@@ -4829,10 +4835,10 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E76" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F76" t="s">
         <v>27</v>
@@ -4841,16 +4847,16 @@
         <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I76" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J76" t="n">
         <v>1408</v>
       </c>
       <c r="K76" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L76" t="s">
         <v>23</v>
@@ -4867,10 +4873,10 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E77" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F77" t="s">
         <v>27</v>
@@ -4879,16 +4885,16 @@
         <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I77" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J77" t="n">
         <v>1511</v>
       </c>
       <c r="K77" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L77" t="s">
         <v>23</v>
@@ -4905,28 +4911,28 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E78" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F78" t="s">
         <v>27</v>
       </c>
       <c r="G78" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I78" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J78" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K78" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L78" t="s">
         <v>23</v>
@@ -4943,10 +4949,10 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E79" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F79" t="s">
         <v>27</v>
@@ -4955,16 +4961,16 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I79" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J79" t="n">
         <v>2406</v>
       </c>
       <c r="K79" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L79" t="s">
         <v>23</v>
@@ -4981,28 +4987,28 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E80" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H80" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I80" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J80" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K80" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L80" t="s">
         <v>23</v>
@@ -5019,10 +5025,10 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E81" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F81" t="s">
         <v>27</v>
@@ -5031,16 +5037,16 @@
         <v>18</v>
       </c>
       <c r="H81" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="I81" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="J81" t="n">
         <v>2235</v>
       </c>
       <c r="K81" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L81" t="s">
         <v>23</v>
@@ -5057,10 +5063,10 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E82" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F82" t="s">
         <v>27</v>
@@ -5069,16 +5075,16 @@
         <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I82" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J82" t="n">
         <v>1922</v>
       </c>
       <c r="K82" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L82" t="s">
         <v>23</v>
@@ -5095,26 +5101,26 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E83" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F83" t="s">
         <v>27</v>
       </c>
       <c r="G83" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H83" t="s"/>
       <c r="I83" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="J83" t="n">
         <v>1624</v>
       </c>
       <c r="K83" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L83" t="s">
         <v>23</v>
@@ -5131,10 +5137,10 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E84" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F84" t="s">
         <v>27</v>
@@ -5143,16 +5149,16 @@
         <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I84" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J84" t="n">
         <v>2425</v>
       </c>
       <c r="K84" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L84" t="s">
         <v>23</v>
@@ -5169,7 +5175,7 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E85" t="s">
         <v>113</v>
@@ -5184,13 +5190,13 @@
         <v>115</v>
       </c>
       <c r="I85" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J85" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K85" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L85" t="s">
         <v>23</v>
@@ -5207,10 +5213,10 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E86" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F86" t="s">
         <v>27</v>
@@ -5219,16 +5225,16 @@
         <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I86" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J86" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K86" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L86" t="s">
         <v>23</v>
@@ -5245,10 +5251,10 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E87" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F87" t="s">
         <v>27</v>
@@ -5257,16 +5263,16 @@
         <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="I87" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J87" t="n">
         <v>1700</v>
       </c>
       <c r="K87" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L87" t="s">
         <v>23</v>
@@ -5283,10 +5289,10 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E88" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F88" t="s">
         <v>27</v>
@@ -5296,13 +5302,13 @@
       </c>
       <c r="H88" t="s"/>
       <c r="I88" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J88" t="n">
         <v>2429</v>
       </c>
       <c r="K88" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L88" t="s">
         <v>23</v>
@@ -5319,10 +5325,10 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E89" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
@@ -5331,16 +5337,16 @@
         <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I89" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J89" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K89" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L89" t="s">
         <v>23</v>
@@ -5357,10 +5363,10 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E90" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F90" t="s">
         <v>27</v>
@@ -5369,16 +5375,16 @@
         <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I90" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J90" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K90" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L90" t="s">
         <v>23</v>
@@ -5395,10 +5401,10 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F91" t="s">
         <v>27</v>
@@ -5407,16 +5413,16 @@
         <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I91" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J91" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K91" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L91" t="s">
         <v>23</v>
@@ -5433,10 +5439,10 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E92" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
@@ -5445,16 +5451,16 @@
         <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J92" t="n">
         <v>2420</v>
       </c>
       <c r="K92" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L92" t="s">
         <v>23</v>
@@ -5465,16 +5471,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E93" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F93" t="s">
         <v>27</v>
@@ -5483,16 +5489,16 @@
         <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I93" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J93" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K93" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L93" t="s">
         <v>23</v>
@@ -5509,28 +5515,28 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E94" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H94" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I94" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J94" t="n">
         <v>1346</v>
       </c>
       <c r="K94" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L94" t="s">
         <v>23</v>
@@ -5547,10 +5553,10 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E95" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F95" t="s">
         <v>27</v>
@@ -5559,16 +5565,16 @@
         <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I95" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J95" t="n">
         <v>1508</v>
       </c>
       <c r="K95" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L95" t="s">
         <v>23</v>
@@ -5585,10 +5591,10 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F96" t="s">
         <v>27</v>
@@ -5597,16 +5603,16 @@
         <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J96" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L96" t="s">
         <v>23</v>
@@ -5623,28 +5629,28 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E97" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F97" t="s">
         <v>27</v>
       </c>
       <c r="G97" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H97" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I97" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J97" t="n">
         <v>1405</v>
       </c>
       <c r="K97" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L97" t="s">
         <v>23</v>
@@ -5661,10 +5667,10 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E98" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F98" t="s">
         <v>27</v>
@@ -5673,16 +5679,16 @@
         <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I98" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J98" t="n">
         <v>1824</v>
       </c>
       <c r="K98" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L98" t="s">
         <v>23</v>
@@ -5693,16 +5699,16 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E99" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F99" t="s">
         <v>27</v>
@@ -5712,13 +5718,13 @@
       </c>
       <c r="H99" t="s"/>
       <c r="I99" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J99" t="n">
         <v>1526</v>
       </c>
       <c r="K99" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L99" t="s">
         <v>23</v>
@@ -5735,10 +5741,10 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E100" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
@@ -5748,13 +5754,13 @@
       </c>
       <c r="H100" t="s"/>
       <c r="I100" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J100" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K100" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L100" t="s">
         <v>23</v>
@@ -5771,10 +5777,10 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E101" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
@@ -5783,16 +5789,16 @@
         <v>18</v>
       </c>
       <c r="H101" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I101" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J101" t="n">
         <v>1342</v>
       </c>
       <c r="K101" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L101" t="s">
         <v>23</v>
